--- a/data/Fichier_traitement_donnees_ICP-MS_projets-Mines_20252.xlsx
+++ b/data/Fichier_traitement_donnees_ICP-MS_projets-Mines_20252.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\cours-info\hackathon_juillet\hackaton_p9\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35250F93-92E7-4442-B66A-2BD12C13E578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E4DED6E-A141-4390-B2BF-F08FBEB19119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2" xr2:uid="{AF7AA3F7-42A2-43C3-B01A-302B5ED835C5}"/>
   </bookViews>
